--- a/files/excel/material_Object3.xlsx
+++ b/files/excel/material_Object3.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Прораб</t>
+          <t>Дата</t>
         </is>
       </c>
     </row>
